--- a/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
+++ b/data_year/zb/工业/按行业分大中型工业企业主要经济指标(2000-2002)/固定资产合计.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AO4"/>
+  <dimension ref="B1:AO1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -635,387 +635,6 @@
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>2000年</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>729.71964</v>
-      </c>
-      <c r="C2" t="n">
-        <v>2257.43963</v>
-      </c>
-      <c r="D2" t="n">
-        <v>166.16788</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.10647</v>
-      </c>
-      <c r="F2" t="n">
-        <v>56.49456</v>
-      </c>
-      <c r="G2" t="n">
-        <v>3249.88655</v>
-      </c>
-      <c r="H2" t="n">
-        <v>820.56777</v>
-      </c>
-      <c r="I2" t="n">
-        <v>606.24742</v>
-      </c>
-      <c r="J2" t="n">
-        <v>212.89367</v>
-      </c>
-      <c r="K2" t="n">
-        <v>349.02555</v>
-      </c>
-      <c r="L2" t="n">
-        <v>43378.97113</v>
-      </c>
-      <c r="M2" t="n">
-        <v>36.575</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.45227</v>
-      </c>
-      <c r="O2" t="n">
-        <v>1103.05218</v>
-      </c>
-      <c r="P2" t="n">
-        <v>1115.59405</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>179.06742</v>
-      </c>
-      <c r="R2" t="n">
-        <v>177.04505</v>
-      </c>
-      <c r="S2" t="n">
-        <v>156.35747</v>
-      </c>
-      <c r="T2" t="n">
-        <v>169.49523</v>
-      </c>
-      <c r="U2" t="n">
-        <v>309.20335</v>
-      </c>
-      <c r="V2" t="n">
-        <v>631.00578</v>
-      </c>
-      <c r="W2" t="n">
-        <v>295.89949</v>
-      </c>
-      <c r="X2" t="n">
-        <v>1869.39197</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>9715.23647</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>1332.40527</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>965.72453</v>
-      </c>
-      <c r="AB2" t="n">
-        <v>92.99709</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>1969.53729</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>3040.80051</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>1478.6304</v>
-      </c>
-      <c r="AF2" t="n">
-        <v>714.09731</v>
-      </c>
-      <c r="AG2" t="n">
-        <v>700.09879</v>
-      </c>
-      <c r="AH2" t="n">
-        <v>317.85384</v>
-      </c>
-      <c r="AI2" t="n">
-        <v>1578.92637</v>
-      </c>
-      <c r="AJ2" t="n">
-        <v>256.96008</v>
-      </c>
-      <c r="AK2" t="n">
-        <v>379.58629</v>
-      </c>
-      <c r="AL2" t="n">
-        <v>651.3335</v>
-      </c>
-      <c r="AM2" t="n">
-        <v>843.813</v>
-      </c>
-      <c r="AN2" t="n">
-        <v>4369.16706</v>
-      </c>
-      <c r="AO2" t="n">
-        <v>79.04885</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>2001年</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>693.70642</v>
-      </c>
-      <c r="C3" t="n">
-        <v>2511.0637</v>
-      </c>
-      <c r="D3" t="n">
-        <v>197.68903</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.10647</v>
-      </c>
-      <c r="F3" t="n">
-        <v>76.05843</v>
-      </c>
-      <c r="G3" t="n">
-        <v>3525.39068</v>
-      </c>
-      <c r="H3" t="n">
-        <v>739.1653</v>
-      </c>
-      <c r="I3" t="n">
-        <v>728.86596</v>
-      </c>
-      <c r="J3" t="n">
-        <v>246.19271</v>
-      </c>
-      <c r="K3" t="n">
-        <v>424.70144</v>
-      </c>
-      <c r="L3" t="n">
-        <v>47837.06396</v>
-      </c>
-      <c r="M3" t="n">
-        <v>42.99654</v>
-      </c>
-      <c r="N3" t="n">
-        <v>53.69702</v>
-      </c>
-      <c r="O3" t="n">
-        <v>1091.98986</v>
-      </c>
-      <c r="P3" t="n">
-        <v>1209.81996</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>178.39401</v>
-      </c>
-      <c r="R3" t="n">
-        <v>213.16211</v>
-      </c>
-      <c r="S3" t="n">
-        <v>179.90437</v>
-      </c>
-      <c r="T3" t="n">
-        <v>163.99404</v>
-      </c>
-      <c r="U3" t="n">
-        <v>338.7778</v>
-      </c>
-      <c r="V3" t="n">
-        <v>655.1037700000001</v>
-      </c>
-      <c r="W3" t="n">
-        <v>300.35044</v>
-      </c>
-      <c r="X3" t="n">
-        <v>2023.31333</v>
-      </c>
-      <c r="Y3" t="n">
-        <v>11306.48735</v>
-      </c>
-      <c r="Z3" t="n">
-        <v>1765.55558</v>
-      </c>
-      <c r="AA3" t="n">
-        <v>1059.40129</v>
-      </c>
-      <c r="AB3" t="n">
-        <v>104.729</v>
-      </c>
-      <c r="AC3" t="n">
-        <v>2136.15158</v>
-      </c>
-      <c r="AD3" t="n">
-        <v>3153.59171</v>
-      </c>
-      <c r="AE3" t="n">
-        <v>1545.54597</v>
-      </c>
-      <c r="AF3" t="n">
-        <v>773.1590200000001</v>
-      </c>
-      <c r="AG3" t="n">
-        <v>1026.39618</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>422.98011</v>
-      </c>
-      <c r="AI3" t="n">
-        <v>1703.72711</v>
-      </c>
-      <c r="AJ3" t="n">
-        <v>272.15927</v>
-      </c>
-      <c r="AK3" t="n">
-        <v>435.85605</v>
-      </c>
-      <c r="AL3" t="n">
-        <v>682.76614</v>
-      </c>
-      <c r="AM3" t="n">
-        <v>889.44517</v>
-      </c>
-      <c r="AN3" t="n">
-        <v>4565.90855</v>
-      </c>
-      <c r="AO3" t="n">
-        <v>78.20029</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>2002年</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
-        <v>679.1467</v>
-      </c>
-      <c r="C4" t="n">
-        <v>2579.29392</v>
-      </c>
-      <c r="D4" t="n">
-        <v>201.5842</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.10647</v>
-      </c>
-      <c r="F4" t="n">
-        <v>77.60890999999999</v>
-      </c>
-      <c r="G4" t="n">
-        <v>3678.99986</v>
-      </c>
-      <c r="H4" t="n">
-        <v>683.19668</v>
-      </c>
-      <c r="I4" t="n">
-        <v>828.97939</v>
-      </c>
-      <c r="J4" t="n">
-        <v>255.4533</v>
-      </c>
-      <c r="K4" t="n">
-        <v>466.52723</v>
-      </c>
-      <c r="L4" t="n">
-        <v>50723.71981</v>
-      </c>
-      <c r="M4" t="n">
-        <v>45.19177</v>
-      </c>
-      <c r="N4" t="n">
-        <v>63.43509</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1105.5485</v>
-      </c>
-      <c r="P4" t="n">
-        <v>1327.39503</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>178.88833</v>
-      </c>
-      <c r="R4" t="n">
-        <v>238.20501</v>
-      </c>
-      <c r="S4" t="n">
-        <v>181.51481</v>
-      </c>
-      <c r="T4" t="n">
-        <v>164.99961</v>
-      </c>
-      <c r="U4" t="n">
-        <v>354.29265</v>
-      </c>
-      <c r="V4" t="n">
-        <v>649.19682</v>
-      </c>
-      <c r="W4" t="n">
-        <v>316.95807</v>
-      </c>
-      <c r="X4" t="n">
-        <v>2380.51909</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>12468.89475</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>2064.713</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>1058.53505</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>106.1201</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>1992.89486</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>3382.01</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>1568.35782</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>889.11321</v>
-      </c>
-      <c r="AG4" t="n">
-        <v>1072.80173</v>
-      </c>
-      <c r="AH4" t="n">
-        <v>404.54981</v>
-      </c>
-      <c r="AI4" t="n">
-        <v>1760.46742</v>
-      </c>
-      <c r="AJ4" t="n">
-        <v>281.45524</v>
-      </c>
-      <c r="AK4" t="n">
-        <v>499.0674</v>
-      </c>
-      <c r="AL4" t="n">
-        <v>715.39045</v>
-      </c>
-      <c r="AM4" t="n">
-        <v>918.0310500000001</v>
-      </c>
-      <c r="AN4" t="n">
-        <v>4666.94272</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>87.90279</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
